--- a/results/statistics.xlsx
+++ b/results/statistics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <definedName name="_xlchart.v3.10" hidden="1">'Closest 10%'!$E$2:$E$114</definedName>
     <definedName name="_xlchart.v3.2" hidden="1">'All Data'!$E$1</definedName>
     <definedName name="_xlchart.v3.3" hidden="1">'All Data'!$E$2:$E$1102</definedName>
-    <definedName name="_xlchart.v3.4" hidden="1">'Closest 10%'!$E$1</definedName>
-    <definedName name="_xlchart.v3.5" hidden="1">'Closest 10%'!$E$2:$E$114</definedName>
-    <definedName name="_xlchart.v3.6" hidden="1">'Closest 10%'!$E$1</definedName>
-    <definedName name="_xlchart.v3.7" hidden="1">'Closest 10%'!$E$2:$E$112</definedName>
-    <definedName name="_xlchart.v3.8" hidden="1">'Closest 10%'!$E$1</definedName>
-    <definedName name="_xlchart.v3.9" hidden="1">'Closest 10%'!$E$2:$E$114</definedName>
+    <definedName name="_xlchart.v3.4" hidden="1">'All Data'!$E$2:$E$1102</definedName>
+    <definedName name="_xlchart.v3.5" hidden="1">'Closest 10%'!$E$1</definedName>
+    <definedName name="_xlchart.v3.6" hidden="1">'Closest 10%'!$E$2:$E$114</definedName>
+    <definedName name="_xlchart.v3.7" hidden="1">'Closest 10%'!$E$1</definedName>
+    <definedName name="_xlchart.v3.8" hidden="1">'Closest 10%'!$E$2:$E$114</definedName>
+    <definedName name="_xlchart.v3.9" hidden="1">'Closest 10%'!$E$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -3756,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1102"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26681,7 +26681,7 @@
         <v>449.61572055699997</v>
       </c>
       <c r="F1090">
-        <f t="shared" ref="F1090:F1153" si="17">$J$2-E1090</f>
+        <f t="shared" ref="F1090:F1102" si="17">$J$2-E1090</f>
         <v>-62.837274434422682</v>
       </c>
     </row>
@@ -26946,8 +26946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29036,7 +29036,7 @@
         <v>147.51416946699999</v>
       </c>
       <c r="F98">
-        <f t="shared" ref="F98:F129" si="3">$J$2-E98</f>
+        <f t="shared" ref="F98:F112" si="3">$J$2-E98</f>
         <v>-15.153208286375673</v>
       </c>
     </row>
